--- a/biology/Botanique/Pomme_d'amour_(homonymie)/Pomme_d'amour_(homonymie).xlsx
+++ b/biology/Botanique/Pomme_d'amour_(homonymie)/Pomme_d'amour_(homonymie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pomme_d%27amour_(homonymie)</t>
+          <t>Pomme_d'amour_(homonymie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pomme d'amour peut avoir plusieurs sens différents  suivant la région d'emploi ou le domaine d'emploi :
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pomme_d%27amour_(homonymie)</t>
+          <t>Pomme_d'amour_(homonymie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>le fruit (une baie toxique) de la plante Solanum pseudocapsicum L.
-Dans le Midi, la pomme d'amour désigne la tomate[1]. Cet emploi atteste de la persistance d'un terme de l'ancien français pour désigner ce fruit puisque le mot « tomate » n'est entré dans le dictionnaire de l'Académie française qu'en 1835.
+Dans le Midi, la pomme d'amour désigne la tomate. Cet emploi atteste de la persistance d'un terme de l'ancien français pour désigner ce fruit puisque le mot « tomate » n'est entré dans le dictionnaire de l'Académie française qu'en 1835.
 En Guyane et aux Antilles, un arbre de la famille des Myrtacées, le Sygygium malaccense Merr. &amp; Perry, ou Jambosier rouge est appelé Pommier d'amour, en raison de ses fruits rouges, comestibles, de la taille d'une pomme. Ce fruit est aussi nommé pomme d'amour.</t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pomme_d%27amour_(homonymie)</t>
+          <t>Pomme_d'amour_(homonymie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Cuisine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe une confiserie appelée "pomme d'amour" qui est constituée d'une pomme fraîche entourée de caramel durci coloré en rouge.</t>
         </is>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pomme_d%27amour_(homonymie)</t>
+          <t>Pomme_d'amour_(homonymie)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pomme d'amour, film de Jean Dréville sorti en 1932.</t>
         </is>
